--- a/TestData/Ingredientsandcomorbidities.xlsx
+++ b/TestData/Ingredientsandcomorbidities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepthi\git\Team7_Scraping_Spatulas\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0019cff6cfb10f79/Desktop/Recipes/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E073170-5FA6-4717-948D-44EFA26E8335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{9E073170-5FA6-4717-948D-44EFA26E8335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CCA7921-0B13-4D10-9ECE-F47D78762FC6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65E39132-EA93-0040-AC3D-E7A04C23C92A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="259">
   <si>
     <t>Diabetes</t>
   </si>
@@ -529,12 +529,6 @@
     <t xml:space="preserve">beverages </t>
   </si>
   <si>
-    <t xml:space="preserve"> soda juices</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> icecreams </t>
-  </si>
-  <si>
     <t xml:space="preserve"> vegetables</t>
   </si>
   <si>
@@ -779,6 +773,48 @@
   </si>
   <si>
     <t>lemon pickle</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>vanilla ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> icecreams</t>
+  </si>
+  <si>
+    <t>soda juices</t>
+  </si>
+  <si>
+    <t>chocolate ice cream</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+  </si>
+  <si>
+    <t>curd</t>
+  </si>
+  <si>
+    <t>tofu</t>
+  </si>
+  <si>
+    <t>soya</t>
+  </si>
+  <si>
+    <t>maida</t>
+  </si>
+  <si>
+    <t>plain flour</t>
+  </si>
+  <si>
+    <t>basmati rice</t>
   </si>
 </sst>
 </file>
@@ -826,7 +862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -877,11 +913,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -894,6 +941,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,18 +1258,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A505095-364E-984D-93F5-33B0E52DF4FD}">
   <dimension ref="A1:H1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="39.8984375" customWidth="1"/>
+    <col min="1" max="1" width="30.19921875" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="30.19921875" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="24.8984375" customWidth="1"/>
-    <col min="6" max="6" width="29.8984375" customWidth="1"/>
+    <col min="6" max="6" width="24.296875" customWidth="1"/>
     <col min="7" max="7" width="25.3984375" customWidth="1"/>
     <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
@@ -1276,7 +1324,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
@@ -1288,16 +1336,16 @@
         <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1317,13 +1365,13 @@
         <v>120</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>148</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1343,13 +1391,13 @@
         <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1357,7 +1405,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>83</v>
@@ -1372,10 +1420,10 @@
         <v>127</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1392,7 +1440,7 @@
         <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>128</v>
@@ -1401,7 +1449,7 @@
         <v>149</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1427,7 +1475,7 @@
         <v>150</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1444,7 +1492,7 @@
         <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>130</v>
@@ -1453,7 +1501,7 @@
         <v>151</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1470,24 +1518,24 @@
         <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>87</v>
@@ -1505,7 +1553,7 @@
         <v>152</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1531,7 +1579,7 @@
         <v>153</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1560,7 +1608,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>67</v>
@@ -1596,7 +1644,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>135</v>
@@ -1644,7 +1692,7 @@
         <v>115</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>136</v>
@@ -1723,7 +1771,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>78</v>
@@ -1733,29 +1781,29 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>137</v>
@@ -1777,7 +1825,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>141</v>
@@ -1795,11 +1843,11 @@
         <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>69</v>
@@ -1819,7 +1867,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>146</v>
@@ -1839,10 +1887,10 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>161</v>
@@ -1855,17 +1903,17 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -1879,27 +1927,27 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>138</v>
@@ -1919,13 +1967,13 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -1939,13 +1987,13 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -1959,13 +2007,13 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -1979,13 +2027,13 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H33" s="1"/>
     </row>
@@ -1999,13 +2047,13 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -2019,13 +2067,13 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -2039,13 +2087,13 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H36" s="1"/>
     </row>
@@ -2059,12 +2107,14 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
@@ -2073,16 +2123,18 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
@@ -2091,16 +2143,18 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
@@ -2109,14 +2163,16 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
@@ -2125,12 +2181,14 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
@@ -2139,12 +2197,14 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
@@ -2153,12 +2213,14 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
@@ -2167,26 +2229,30 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
@@ -2195,12 +2261,14 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
@@ -2209,7 +2277,7 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2223,7 +2291,7 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2237,7 +2305,7 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2251,7 +2319,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2265,7 +2333,7 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2275,11 +2343,11 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2293,7 +2361,7 @@
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2306,7 +2374,9 @@
         <v>15</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2315,10 +2385,12 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2435,7 +2507,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2447,7 +2519,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2531,7 +2603,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2543,7 +2615,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2555,7 +2627,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2567,7 +2639,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2579,7 +2651,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2591,7 +2663,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2603,7 +2675,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2615,7 +2687,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2627,7 +2699,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2639,7 +2711,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2651,7 +2723,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2663,7 +2735,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2687,7 +2759,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2699,7 +2771,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2711,7 +2783,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2722,7 +2794,9 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -11967,27 +12041,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.2" thickBot="1">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.2" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.2" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.2" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.2" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.2" thickBot="1">
@@ -11997,42 +12071,42 @@
     </row>
     <row r="7" spans="1:1" ht="16.2" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.2" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.2" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.2" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.2" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.2" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.2" thickBot="1">
       <c r="A13" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.2" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
